--- a/downloads/CHF Cost and Utilization Assumptions.xlsx
+++ b/downloads/CHF Cost and Utilization Assumptions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1540" windowWidth="35940" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="2460" yWindow="1540" windowWidth="35940" windowHeight="17640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions-Cost &amp; IP by Comorb" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>% of 
 All CHF Patients</t>
@@ -64,9 +64,6 @@
     <t>CHF + Cerebrovascular Disease</t>
   </si>
   <si>
-    <t>CHF PATIENT COST BREAKDOWN BY SERVICE CATEGORY</t>
-  </si>
-  <si>
     <t>Service Category</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>Drug</t>
   </si>
   <si>
-    <t>Skilled Nursing Facilit</t>
-  </si>
-  <si>
     <t>Home Health</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
   </si>
   <si>
     <t>CHF Related Cost PPPY Baseline</t>
-  </si>
-  <si>
-    <t>CHF Related IP Admissions/Pt/Year</t>
   </si>
   <si>
     <t>CHF PATIENT BASELINE COST AND UTILIZATION ASSUMPTIONS BY COMORBIDITY TYPE</t>
@@ -111,17 +102,27 @@
 PPPY Trend </t>
   </si>
   <si>
-    <t xml:space="preserve">CHF Related IP Admissions Trend </t>
+    <t>CHF Related Utilization Baseline (per 1,000)</t>
+  </si>
+  <si>
+    <t>CHF Related Unit Cost Baseline</t>
+  </si>
+  <si>
+    <t>Skilled Nursing Facility</t>
+  </si>
+  <si>
+    <t>CHF PATIENT BASELINE COST AND UTILIZATION BREAKDOWN BY SERVICE CATEGORY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -237,11 +238,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -526,10 +527,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,16 +539,14 @@
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -555,19 +554,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -580,15 +573,8 @@
       <c r="D4" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E4" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="F4" s="7">
-        <f>D4+1%</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -601,15 +587,8 @@
       <c r="D5" s="4">
         <v>0.06</v>
       </c>
-      <c r="E5" s="13">
-        <v>0.81818181818181834</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:F12" si="0">D5+1%</f>
-        <v>6.9999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -622,15 +601,8 @@
       <c r="D6" s="4">
         <v>0.08</v>
       </c>
-      <c r="E6" s="13">
-        <v>0.90909090909090917</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -643,15 +615,8 @@
       <c r="D7" s="4">
         <v>0.08</v>
       </c>
-      <c r="E7" s="13">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -664,15 +629,8 @@
       <c r="D8" s="4">
         <v>0.04</v>
       </c>
-      <c r="E8" s="13">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -685,15 +643,8 @@
       <c r="D9" s="4">
         <v>0.09</v>
       </c>
-      <c r="E9" s="13">
-        <v>1.4181818181818184</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -706,15 +657,8 @@
       <c r="D10" s="4">
         <v>0.06</v>
       </c>
-      <c r="E10" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>6.9999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -727,15 +671,8 @@
       <c r="D11" s="4">
         <v>0.04</v>
       </c>
-      <c r="E11" s="13">
-        <v>1.0909090909090911</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -747,13 +684,6 @@
       </c>
       <c r="D12" s="4">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1.2090909090909094</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -766,11 +696,9 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -780,27 +708,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="11" t="str">
         <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
         <v>All CHF Patient</v>
@@ -840,7 +768,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9">
         <v>13850.000000000002</v>
@@ -872,7 +800,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="9">
         <v>3800</v>
@@ -904,7 +832,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="9">
         <v>1312.1224199778135</v>
@@ -936,7 +864,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9">
         <v>2875</v>
@@ -968,7 +896,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9">
         <v>2557.5644467093225</v>
@@ -1000,7 +928,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B10" s="9">
         <v>346.83235180359839</v>
@@ -1032,7 +960,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="9">
         <v>158.05750439535385</v>
@@ -1064,7 +992,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9">
         <v>100.42327711391103</v>
@@ -1094,10 +1022,764 @@
         <v>134.63146222999367</v>
       </c>
     </row>
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>All CHF Patient</v>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>No Comorbidity</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Hypertension</v>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Coronary Heart Disease</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Chronic Pulmonary Disease</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Renal Disease</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Atril Fibrillation</v>
+      </c>
+      <c r="I16" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Diabetes</v>
+      </c>
+      <c r="J16" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Cerebrovascular Disease</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14">
+        <v>890</v>
+      </c>
+      <c r="C17" s="14">
+        <v>830</v>
+      </c>
+      <c r="D17" s="14">
+        <v>900</v>
+      </c>
+      <c r="E17" s="14">
+        <v>950</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1250</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1050</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="14">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="14">
+        <v>20810</v>
+      </c>
+      <c r="C18" s="14">
+        <f ca="1">$B18*C17/$B17*(0.98+RAND()*0.04)</f>
+        <v>19160.234941929488</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" ref="D18:D24" ca="1" si="0">$B18*D17/$B17*(0.98+RAND()*0.04)</f>
+        <v>21328.399644957673</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" ref="E18:E24" ca="1" si="1">$B18*E17/$B17*(0.98+RAND()*0.04)</f>
+        <v>22076.358155995706</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" ref="F18:F24" ca="1" si="2">$B18*F17/$B17*(0.98+RAND()*0.04)</f>
+        <v>25693.536744009329</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" ref="G18:G24" ca="1" si="3">$B18*G17/$B17*(0.98+RAND()*0.04)</f>
+        <v>29264.997749387981</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" ref="H18:H24" ca="1" si="4">$B18*H17/$B17*(0.98+RAND()*0.04)</f>
+        <v>24496.050759699934</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" ref="I18:I24" ca="1" si="5">$B18*I17/$B17*(0.98+RAND()*0.04)</f>
+        <v>23726.824542311366</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" ref="J18:J24" ca="1" si="6">$B18*J17/$B17*(0.98+RAND()*0.04)</f>
+        <v>25785.67402244293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="14">
+        <v>540</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" ref="C19:C24" ca="1" si="7">$B19*C18/$B18*(0.98+RAND()*0.04)</f>
+        <v>492.22583154461569</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>546.61403870472145</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>580.53694923406817</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>672.39676423746153</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>753.21860322278201</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>624.24239373656326</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" ca="1" si="5"/>
+        <v>615.74287291254507</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>669.6994275703222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="14">
+        <v>70100</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>64844.065657562074</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>71760.875912787989</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>74257.864657560975</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>87922.618989508992</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>99638.470955948273</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>81935.378462117762</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" ca="1" si="5"/>
+        <v>80193.4892812381</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>87509.633745041996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="14">
+        <v>23780</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>22121.353307652014</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>24110.386265224988</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>25286.333693381283</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>30332.292701259285</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>34180.949928604859</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>28343.365701089919</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" ca="1" si="5"/>
+        <v>26907.208611032103</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>30212.217814343971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="14">
+        <v>560</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>517.96084898340155</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>577.29098548933734</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>595.13616521698293</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>722.84512921386033</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>813.776035169019</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>665.1409195694323</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" ca="1" si="5"/>
+        <v>641.01775568408573</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>719.9518283160636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="14">
+        <v>620</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>565.80152826302208</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>638.12622552864332</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>660.1223684489056</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>794.46541369320016</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>905.70255175341629</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>725.30243856955826</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" ca="1" si="5"/>
+        <v>707.48257165291341</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>809.67982227938239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="14">
+        <v>160</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>147.28095812006177</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>164.11264688232669</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>166.97637522577637</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>208.25183599238107</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>229.65111271441685</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>188.4840124519863</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" ca="1" si="5"/>
+        <v>185.72454595859315</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>209.92293056838471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>All CHF Patient</v>
+      </c>
+      <c r="C28" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>No Comorbidity</v>
+      </c>
+      <c r="D28" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Hypertension</v>
+      </c>
+      <c r="E28" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Coronary Heart Disease</v>
+      </c>
+      <c r="F28" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Chronic Pulmonary Disease</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Renal Disease</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Atril Fibrillation</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Diabetes</v>
+      </c>
+      <c r="J28" s="11" t="str">
+        <f ca="1">OFFSET('Assumptions-Cost &amp; IP by Comorb'!$A$4,COLUMN()-2,0)</f>
+        <v>CHF + Cerebrovascular Disease</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="9">
+        <f>B5/B17*1000</f>
+        <v>15561.79775280899</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" ref="C29:J29" si="8">C5/C17*1000</f>
+        <v>15138.216867469881</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="8"/>
+        <v>15512</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="8"/>
+        <v>16165.13684210527</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="8"/>
+        <v>16752.960000000003</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="8"/>
+        <v>17423.078400000006</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="8"/>
+        <v>16088.160000000002</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="8"/>
+        <v>16752.960000000003</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="8"/>
+        <v>16879.876363636366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="9">
+        <f t="shared" ref="B30:J30" si="9">B6/B18*1000</f>
+        <v>182.60451705910617</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>179.92263719355216</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>179.59153353100075</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>190.85756673392592</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>196.78598747908381</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>204.18330632282257</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>189.20535581290471</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>193.7250385867367</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>197.56830849432083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="9">
+        <f t="shared" ref="B31:J31" si="10">B7/B19*1000</f>
+        <v>2429.8563332922472</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>2418.3157061637821</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>2419.6586726381342</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>2506.0960222960803</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>2596.4693763890832</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>2739.2927553018062</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>2563.6987959422577</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>2577.6072270195609</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>2626.6765786272713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="9">
+        <f t="shared" ref="B32:J32" si="11">B8/B20*1000</f>
+        <v>41.012838801711837</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" ca="1" si="11"/>
+        <v>40.222647570770164</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" ca="1" si="11"/>
+        <v>40.38412245026079</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" ca="1" si="11"/>
+        <v>42.928786259886309</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" ca="1" si="11"/>
+        <v>43.50825810200724</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" ca="1" si="11"/>
+        <v>45.372835980178301</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" ca="1" si="11"/>
+        <v>42.796897577293095</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" ca="1" si="11"/>
+        <v>43.365116434877606</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" ca="1" si="11"/>
+        <v>44.044750675446338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="9">
+        <f t="shared" ref="B33:J33" si="12">B9/B21*1000</f>
+        <v>107.55107008870154</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>104.88609958831529</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>106.9259087732388</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>112.14862118400254</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>112.19042964306739</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>117.65965982694465</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>110.05786106208525</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>114.97402051103849</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>113.48962267207322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="9">
+        <f t="shared" ref="B34:J34" si="13">B10/B22*1000</f>
+        <v>619.34348536356856</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>607.47122137470194</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>605.59928944964361</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>646.18440981421293</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>638.42341238113602</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>670.19291917443479</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>635.99226930986401</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>654.47237462855833</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>645.84504939662168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="9">
+        <f t="shared" ref="B35:J35" si="14">B11/B23*1000</f>
+        <v>254.93145870218365</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>253.42767883229882</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>249.67155095142735</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>265.48738423356929</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>264.71258461793252</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>274.41930469383658</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>265.79198787904966</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>270.23472376138596</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>261.70617923521763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="9">
+        <f t="shared" ref="B36:J36" si="15">B12/B24*1000</f>
+        <v>627.64548196194391</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>618.57281593370089</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>616.81208154180001</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>666.85679044921221</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>641.62313364466047</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>687.62390449401664</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>649.83900245383506</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>654.04384417808012</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>641.3375702476485</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
